--- a/ATO/other/indexes.xlsx
+++ b/ATO/other/indexes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\MEGA同期\ATO\ATO\other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spc2\Documents\MEGAsync\ATO\ATO\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB24533-BCD4-4B5A-AFA8-DE11B044842A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="5" r:id="rId1"/>
@@ -19,17 +20,22 @@
     <sheet name="Panel" sheetId="1" r:id="rId5"/>
     <sheet name="Sound" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="772">
   <si>
     <t>//ats92=0,切</t>
   </si>
@@ -2478,11 +2484,158 @@
     <t>20</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ATC非常運転</t>
+  </si>
+  <si>
+    <t>「非常運転」</t>
+  </si>
+  <si>
+    <t>〃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆにこんATO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信値</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信値</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運転台側</t>
+    <rPh sb="0" eb="3">
+      <t>ウンテンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット２</t>
+  </si>
+  <si>
+    <t>ユニット３</t>
+  </si>
+  <si>
+    <t>ユニット４</t>
+  </si>
+  <si>
+    <t>ユニット５</t>
+  </si>
+  <si>
+    <t>ブレーキ指令</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット2-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット3-2</t>
+  </si>
+  <si>
+    <t>ユニット4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット4-2</t>
+  </si>
+  <si>
+    <t>ユニット5-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット5-2</t>
+  </si>
+  <si>
+    <t>ユニット1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット6-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット6-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット7-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット7-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット8-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット8-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット9-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット9-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット0-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット0-2</t>
+  </si>
+  <si>
+    <t>ユニット０</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -2832,16 +2985,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>721</v>
       </c>
@@ -2852,7 +3005,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>716</v>
       </c>
@@ -2860,7 +3013,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>718</v>
       </c>
@@ -2877,7 +3030,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>12</v>
       </c>
@@ -2891,7 +3044,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>21</v>
       </c>
@@ -2902,7 +3055,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>22</v>
       </c>
@@ -2913,7 +3066,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>23</v>
       </c>
@@ -2924,7 +3077,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>24</v>
       </c>
@@ -2935,7 +3088,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>25</v>
       </c>
@@ -2946,7 +3099,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>31</v>
       </c>
@@ -2960,7 +3113,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>722</v>
       </c>
@@ -2974,7 +3127,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>136</v>
       </c>
@@ -2988,7 +3141,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <v>137</v>
       </c>
@@ -3002,7 +3155,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>138</v>
       </c>
@@ -3016,7 +3169,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>139</v>
       </c>
@@ -3027,7 +3180,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>140</v>
       </c>
@@ -3041,7 +3194,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <v>141</v>
       </c>
@@ -3052,7 +3205,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>142</v>
       </c>
@@ -3063,7 +3216,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>143</v>
       </c>
@@ -3074,7 +3227,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>144</v>
       </c>
@@ -3088,7 +3241,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <v>145</v>
       </c>
@@ -3102,7 +3255,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>146</v>
       </c>
@@ -3116,7 +3269,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
         <v>147</v>
       </c>
@@ -3124,7 +3277,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>148</v>
       </c>
@@ -3135,7 +3288,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
         <v>149</v>
       </c>
@@ -3146,17 +3299,17 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B28" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>722</v>
       </c>
@@ -3173,7 +3326,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" s="1">
         <v>127</v>
       </c>
@@ -3187,7 +3340,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" s="1">
         <v>128</v>
       </c>
@@ -3201,7 +3354,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B34" s="1">
         <v>129</v>
       </c>
@@ -3215,7 +3368,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
         <v>130</v>
       </c>
@@ -3229,10 +3382,10 @@
         <v>679</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>722</v>
       </c>
@@ -3249,7 +3402,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" s="1">
         <v>243</v>
       </c>
@@ -3263,7 +3416,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B39" s="1">
         <v>244</v>
       </c>
@@ -3285,19 +3438,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>727</v>
       </c>
@@ -3335,7 +3488,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3367,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3382,7 +3535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3397,7 +3550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3412,7 +3565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3427,7 +3580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3435,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3443,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3451,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3459,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3476,7 +3629,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3491,7 +3644,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3506,7 +3659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3521,7 +3674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3536,7 +3689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3551,7 +3704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3566,7 +3719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3581,7 +3734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3596,7 +3749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3611,7 +3764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3626,7 +3779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3641,7 +3794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3656,7 +3809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3671,7 +3824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3686,7 +3839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3701,7 +3854,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3716,7 +3869,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3731,7 +3884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3746,7 +3899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3761,7 +3914,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3776,7 +3929,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3791,7 +3944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3806,7 +3959,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3821,7 +3974,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3836,7 +3989,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3846,7 +3999,7 @@
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3861,7 +4014,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3876,7 +4029,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3885,7 +4038,7 @@
       </c>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3905,7 +4058,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3920,7 +4073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3938,7 +4091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3956,7 +4109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3974,7 +4127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3992,7 +4145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4007,7 +4160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4022,7 +4175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4040,7 +4193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4055,7 +4208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4073,7 +4226,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4091,7 +4244,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4108,7 +4261,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4123,7 +4276,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4138,7 +4291,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4153,7 +4306,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4165,7 +4318,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>0</v>
       </c>
@@ -4189,7 +4342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BD55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4199,9 +4352,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>727</v>
       </c>
@@ -4371,7 +4524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>641</v>
       </c>
@@ -4434,7 +4587,7 @@
       <c r="BC2" s="5"/>
       <c r="BD2" s="5"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>728</v>
       </c>
@@ -4601,7 +4754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>733</v>
       </c>
@@ -4768,7 +4921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>732</v>
       </c>
@@ -4935,7 +5088,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>729</v>
       </c>
@@ -5102,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>731</v>
       </c>
@@ -5292,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>730</v>
       </c>
@@ -5476,130 +5629,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
     </row>
   </sheetData>
@@ -5611,18 +5764,19 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>554</v>
       </c>
@@ -5652,7 +5806,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5666,7 +5820,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5683,7 +5837,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5700,7 +5854,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5714,7 +5868,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5728,7 +5882,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5745,7 +5899,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5759,7 +5913,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5776,7 +5930,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5787,7 +5941,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5807,7 +5961,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5824,7 +5978,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5835,7 +5989,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5849,7 +6003,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5860,7 +6014,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5871,7 +6025,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5879,7 +6033,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5893,7 +6047,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5904,7 +6058,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5918,7 +6072,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5932,7 +6086,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5940,7 +6094,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5951,7 +6105,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5962,7 +6116,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5973,7 +6127,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5987,7 +6141,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6001,32 +6155,32 @@
         <v>714</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6040,7 +6194,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6054,7 +6208,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6068,7 +6222,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6082,7 +6236,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6096,32 +6250,32 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6147,20 +6301,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="F196" sqref="F196"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>510</v>
       </c>
@@ -6180,7 +6336,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -6200,7 +6356,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>510</v>
       </c>
@@ -6220,7 +6376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>510</v>
       </c>
@@ -6240,7 +6396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -6251,7 +6407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -6271,7 +6427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>510</v>
       </c>
@@ -6291,7 +6447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -6311,7 +6467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -6322,7 +6478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>511</v>
       </c>
@@ -6330,7 +6486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>510</v>
       </c>
@@ -6347,7 +6503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -6367,7 +6523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>510</v>
       </c>
@@ -6387,7 +6543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>510</v>
       </c>
@@ -6407,7 +6563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -6427,7 +6583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -6447,7 +6603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>510</v>
       </c>
@@ -6467,7 +6623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>510</v>
       </c>
@@ -6487,7 +6643,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -6507,7 +6663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>510</v>
       </c>
@@ -6527,7 +6683,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>510</v>
       </c>
@@ -6547,7 +6703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>510</v>
       </c>
@@ -6567,7 +6723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -6587,7 +6743,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>510</v>
       </c>
@@ -6598,7 +6754,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>739</v>
       </c>
       <c r="E24" t="s">
         <v>74</v>
@@ -6607,15 +6763,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>511</v>
+        <v>740</v>
+      </c>
+      <c r="B25" t="s">
+        <v>434</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>739</v>
+      </c>
+      <c r="E25" t="s">
+        <v>738</v>
+      </c>
+      <c r="F25" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>510</v>
       </c>
@@ -6635,7 +6803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>510</v>
       </c>
@@ -6655,7 +6823,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>510</v>
       </c>
@@ -6675,7 +6843,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>510</v>
       </c>
@@ -6695,7 +6863,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>510</v>
       </c>
@@ -6715,7 +6883,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>510</v>
       </c>
@@ -6735,7 +6903,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>510</v>
       </c>
@@ -6755,7 +6923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>510</v>
       </c>
@@ -6775,7 +6943,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>510</v>
       </c>
@@ -6795,7 +6963,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>510</v>
       </c>
@@ -6815,7 +6983,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>511</v>
       </c>
@@ -6823,7 +6991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>510</v>
       </c>
@@ -6843,7 +7011,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>510</v>
       </c>
@@ -6863,7 +7031,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>510</v>
       </c>
@@ -6883,7 +7051,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>510</v>
       </c>
@@ -6903,7 +7071,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>511</v>
       </c>
@@ -6911,7 +7079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>510</v>
       </c>
@@ -6931,7 +7099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>510</v>
       </c>
@@ -6951,7 +7119,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>510</v>
       </c>
@@ -6971,7 +7139,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>510</v>
       </c>
@@ -6991,7 +7159,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>510</v>
       </c>
@@ -7011,7 +7179,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>510</v>
       </c>
@@ -7031,7 +7199,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -7051,7 +7219,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>510</v>
       </c>
@@ -7071,7 +7239,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>510</v>
       </c>
@@ -7091,7 +7259,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>510</v>
       </c>
@@ -7111,7 +7279,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>510</v>
       </c>
@@ -7131,7 +7299,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>510</v>
       </c>
@@ -7151,7 +7319,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>510</v>
       </c>
@@ -7171,7 +7339,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>510</v>
       </c>
@@ -7191,7 +7359,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>510</v>
       </c>
@@ -7211,7 +7379,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>510</v>
       </c>
@@ -7228,7 +7396,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>510</v>
       </c>
@@ -7248,7 +7416,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>510</v>
       </c>
@@ -7268,7 +7436,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>510</v>
       </c>
@@ -7288,7 +7456,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>510</v>
       </c>
@@ -7308,7 +7476,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>510</v>
       </c>
@@ -7325,7 +7493,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>510</v>
       </c>
@@ -7345,7 +7513,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>510</v>
       </c>
@@ -7365,7 +7533,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>510</v>
       </c>
@@ -7385,7 +7553,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>510</v>
       </c>
@@ -7405,7 +7573,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>510</v>
       </c>
@@ -7425,7 +7593,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>673</v>
       </c>
@@ -7439,7 +7607,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>510</v>
       </c>
@@ -7459,7 +7627,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>510</v>
       </c>
@@ -7476,7 +7644,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>510</v>
       </c>
@@ -7493,7 +7661,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>511</v>
       </c>
@@ -7501,7 +7669,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>510</v>
       </c>
@@ -7518,7 +7686,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>510</v>
       </c>
@@ -7538,7 +7706,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>510</v>
       </c>
@@ -7558,7 +7726,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>510</v>
       </c>
@@ -7578,7 +7746,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>510</v>
       </c>
@@ -7598,7 +7766,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>510</v>
       </c>
@@ -7618,7 +7786,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>510</v>
       </c>
@@ -7632,7 +7800,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>510</v>
       </c>
@@ -7646,7 +7814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>511</v>
       </c>
@@ -7654,7 +7822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>510</v>
       </c>
@@ -7671,7 +7839,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>510</v>
       </c>
@@ -7688,7 +7856,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>511</v>
       </c>
@@ -7696,7 +7864,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>511</v>
       </c>
@@ -7704,7 +7872,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>511</v>
       </c>
@@ -7712,7 +7880,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>510</v>
       </c>
@@ -7729,7 +7897,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>511</v>
       </c>
@@ -7737,7 +7905,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>511</v>
       </c>
@@ -7745,7 +7913,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>511</v>
       </c>
@@ -7753,7 +7921,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>511</v>
       </c>
@@ -7761,7 +7929,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>510</v>
       </c>
@@ -7775,7 +7943,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>510</v>
       </c>
@@ -7792,7 +7960,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>511</v>
       </c>
@@ -7800,7 +7968,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>511</v>
       </c>
@@ -7808,7 +7976,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>511</v>
       </c>
@@ -7816,7 +7984,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>510</v>
       </c>
@@ -7836,27 +8004,27 @@
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C98" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C99" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C100" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C101" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>510</v>
       </c>
@@ -7876,7 +8044,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>510</v>
       </c>
@@ -7896,7 +8064,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>510</v>
       </c>
@@ -7910,7 +8078,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>510</v>
       </c>
@@ -7930,7 +8098,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>510</v>
       </c>
@@ -7950,7 +8118,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>510</v>
       </c>
@@ -7970,7 +8138,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>510</v>
       </c>
@@ -7987,7 +8155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>510</v>
       </c>
@@ -8004,7 +8172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>510</v>
       </c>
@@ -8021,7 +8189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>510</v>
       </c>
@@ -8038,7 +8206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -8055,7 +8223,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>510</v>
       </c>
@@ -8072,7 +8240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>510</v>
       </c>
@@ -8089,7 +8257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>510</v>
       </c>
@@ -8106,7 +8274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>510</v>
       </c>
@@ -8123,7 +8291,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>510</v>
       </c>
@@ -8140,7 +8308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>510</v>
       </c>
@@ -8157,7 +8325,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>510</v>
       </c>
@@ -8174,7 +8342,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>510</v>
       </c>
@@ -8191,7 +8359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>510</v>
       </c>
@@ -8208,7 +8376,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>510</v>
       </c>
@@ -8225,7 +8393,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>510</v>
       </c>
@@ -8242,7 +8410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>510</v>
       </c>
@@ -8259,7 +8427,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>510</v>
       </c>
@@ -8276,7 +8444,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>510</v>
       </c>
@@ -8293,7 +8461,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>40000</v>
       </c>
@@ -8310,7 +8478,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>40000</v>
       </c>
@@ -8327,7 +8495,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>40000</v>
       </c>
@@ -8344,7 +8512,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>40000</v>
       </c>
@@ -8361,7 +8529,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>40000</v>
       </c>
@@ -8378,7 +8546,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>510</v>
       </c>
@@ -8398,7 +8566,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>510</v>
       </c>
@@ -8418,7 +8586,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>510</v>
       </c>
@@ -8438,7 +8606,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>510</v>
       </c>
@@ -8458,7 +8626,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>510</v>
       </c>
@@ -8478,7 +8646,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>412</v>
       </c>
@@ -8501,7 +8669,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>412</v>
       </c>
@@ -8524,7 +8692,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>412</v>
       </c>
@@ -8550,7 +8718,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>412</v>
       </c>
@@ -8573,7 +8741,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>412</v>
       </c>
@@ -8599,7 +8767,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>412</v>
       </c>
@@ -8622,7 +8790,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>412</v>
       </c>
@@ -8636,7 +8804,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>412</v>
       </c>
@@ -8650,7 +8818,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>412</v>
       </c>
@@ -8667,7 +8835,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>412</v>
       </c>
@@ -8684,7 +8852,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -8707,7 +8875,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>412</v>
       </c>
@@ -8721,7 +8889,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>412</v>
       </c>
@@ -8735,7 +8903,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>412</v>
       </c>
@@ -8758,7 +8926,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>412</v>
       </c>
@@ -8775,7 +8943,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>510</v>
       </c>
@@ -8792,7 +8960,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>510</v>
       </c>
@@ -8809,7 +8977,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>510</v>
       </c>
@@ -8829,7 +8997,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>510</v>
       </c>
@@ -8849,7 +9017,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>510</v>
       </c>
@@ -8869,7 +9037,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>510</v>
       </c>
@@ -8886,7 +9054,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>510</v>
       </c>
@@ -8903,7 +9071,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>510</v>
       </c>
@@ -8923,7 +9091,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>510</v>
       </c>
@@ -8943,7 +9111,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>510</v>
       </c>
@@ -8960,7 +9128,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>510</v>
       </c>
@@ -8977,7 +9145,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>510</v>
       </c>
@@ -8997,7 +9165,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>510</v>
       </c>
@@ -9017,7 +9185,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>510</v>
       </c>
@@ -9037,7 +9205,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>510</v>
       </c>
@@ -9057,7 +9225,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>510</v>
       </c>
@@ -9074,7 +9242,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>510</v>
       </c>
@@ -9091,7 +9259,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>510</v>
       </c>
@@ -9111,7 +9279,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>510</v>
       </c>
@@ -9131,7 +9299,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>511</v>
       </c>
@@ -9139,7 +9307,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>510</v>
       </c>
@@ -9159,7 +9327,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>510</v>
       </c>
@@ -9176,7 +9344,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>510</v>
       </c>
@@ -9193,7 +9361,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>510</v>
       </c>
@@ -9210,7 +9378,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>510</v>
       </c>
@@ -9227,7 +9395,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>510</v>
       </c>
@@ -9247,7 +9415,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>510</v>
       </c>
@@ -9264,7 +9432,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>511</v>
       </c>
@@ -9272,7 +9440,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>511</v>
       </c>
@@ -9280,7 +9448,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>511</v>
       </c>
@@ -9288,7 +9456,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>510</v>
       </c>
@@ -9308,7 +9476,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>510</v>
       </c>
@@ -9328,7 +9496,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>511</v>
       </c>
@@ -9336,7 +9504,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>511</v>
       </c>
@@ -9344,7 +9512,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>511</v>
       </c>
@@ -9352,7 +9520,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>511</v>
       </c>
@@ -9360,7 +9528,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>511</v>
       </c>
@@ -9368,7 +9536,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>511</v>
       </c>
@@ -9376,7 +9544,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>511</v>
       </c>
@@ -9384,7 +9552,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>511</v>
       </c>
@@ -9392,7 +9560,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>511</v>
       </c>
@@ -9400,7 +9568,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>510</v>
       </c>
@@ -9420,7 +9588,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>510</v>
       </c>
@@ -9440,63 +9608,105 @@
         <v>347</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C195" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
+        <v>742</v>
+      </c>
+      <c r="E195" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C196" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D196" t="s">
+        <v>743</v>
+      </c>
+      <c r="E196" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C197" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C198" s="1">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C199" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C200" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C201" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>510</v>
       </c>
@@ -9516,7 +9726,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>510</v>
       </c>
@@ -9536,7 +9746,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>510</v>
       </c>
@@ -9556,7 +9766,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>510</v>
       </c>
@@ -9576,7 +9786,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>510</v>
       </c>
@@ -9596,7 +9806,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>510</v>
       </c>
@@ -9616,31 +9826,43 @@
         <v>374</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C208" s="1">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D208" t="s">
+        <v>750</v>
+      </c>
+      <c r="E208" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C209" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E209" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C210" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E210" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>510</v>
       </c>
@@ -9660,7 +9882,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>510</v>
       </c>
@@ -9680,7 +9902,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>510</v>
       </c>
@@ -9700,7 +9922,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>511</v>
       </c>
@@ -9708,7 +9930,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>510</v>
       </c>
@@ -9728,143 +9950,245 @@
         <v>378</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C216" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D216" t="s">
+        <v>750</v>
+      </c>
+      <c r="E216" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C217" s="1">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C218" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C219" s="1">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C220" s="1">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C221" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C222" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C223" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C224" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C225" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C226" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C227" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C228" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C229" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C230" s="1">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C231" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>511</v>
+        <v>741</v>
       </c>
       <c r="C232" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>510</v>
       </c>
@@ -9884,7 +10208,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>511</v>
       </c>
@@ -9892,7 +10216,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>511</v>
       </c>
@@ -9900,7 +10224,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>510</v>
       </c>
@@ -9920,7 +10244,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>510</v>
       </c>
@@ -9940,7 +10264,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>510</v>
       </c>
@@ -9960,7 +10284,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>510</v>
       </c>
@@ -9980,7 +10304,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>510</v>
       </c>
@@ -10000,7 +10324,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>510</v>
       </c>
@@ -10020,7 +10344,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>510</v>
       </c>
@@ -10040,7 +10364,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>40000</v>
       </c>
@@ -10057,7 +10381,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>40000</v>
       </c>
@@ -10074,7 +10398,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>40000</v>
       </c>
@@ -10091,7 +10415,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>510</v>
       </c>
@@ -10111,7 +10435,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>510</v>
       </c>
@@ -10131,7 +10455,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>510</v>
       </c>
@@ -10151,7 +10475,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>510</v>
       </c>
@@ -10171,7 +10495,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>510</v>
       </c>
@@ -10191,7 +10515,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>510</v>
       </c>
@@ -10211,7 +10535,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>510</v>
       </c>
@@ -10231,7 +10555,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>510</v>
       </c>
@@ -10251,7 +10575,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>510</v>
       </c>
@@ -10271,7 +10595,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>510</v>
       </c>
@@ -10291,7 +10615,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>511</v>
       </c>
@@ -10299,12 +10623,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" s="3"/>
     </row>
   </sheetData>
@@ -10315,17 +10639,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>510</v>
       </c>
@@ -10342,7 +10666,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -10359,7 +10683,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>510</v>
       </c>
@@ -10376,7 +10700,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>510</v>
       </c>
@@ -10393,7 +10717,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -10410,7 +10734,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -10427,7 +10751,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>510</v>
       </c>
@@ -10444,7 +10768,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -10461,7 +10785,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -10478,7 +10802,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>510</v>
       </c>
@@ -10495,7 +10819,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>510</v>
       </c>
@@ -10509,7 +10833,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -10523,7 +10847,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>510</v>
       </c>
@@ -10537,7 +10861,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>510</v>
       </c>
@@ -10551,7 +10875,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -10565,7 +10889,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -10579,7 +10903,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>510</v>
       </c>
@@ -10596,7 +10920,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>510</v>
       </c>
@@ -10613,7 +10937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -10630,7 +10954,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>510</v>
       </c>
@@ -10647,7 +10971,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>510</v>
       </c>
@@ -10661,7 +10985,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>511</v>
       </c>
@@ -10669,7 +10993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -10686,7 +11010,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -10694,7 +11018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>510</v>
       </c>
@@ -10711,7 +11035,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>511</v>
       </c>
@@ -10719,7 +11043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>511</v>
       </c>
@@ -10727,7 +11051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>510</v>
       </c>
@@ -10744,7 +11068,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>510</v>
       </c>
@@ -10761,7 +11085,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>510</v>
       </c>
@@ -10775,7 +11099,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>510</v>
       </c>
@@ -10792,7 +11116,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>510</v>
       </c>
@@ -10809,7 +11133,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>510</v>
       </c>
@@ -10826,7 +11150,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>510</v>
       </c>
@@ -10843,7 +11167,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>510</v>
       </c>
@@ -10860,7 +11184,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>511</v>
       </c>
@@ -10868,7 +11192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>511</v>
       </c>
@@ -10876,7 +11200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>511</v>
       </c>
@@ -10884,7 +11208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>511</v>
       </c>
@@ -10892,7 +11216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>511</v>
       </c>
@@ -10900,7 +11224,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>510</v>
       </c>
@@ -10914,7 +11238,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>510</v>
       </c>
@@ -10931,7 +11255,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>510</v>
       </c>
@@ -10948,7 +11272,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>510</v>
       </c>
@@ -10965,7 +11289,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>510</v>
       </c>
@@ -10982,7 +11306,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>510</v>
       </c>
@@ -10999,7 +11323,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>510</v>
       </c>
@@ -11016,7 +11340,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -11033,7 +11357,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>511</v>
       </c>
@@ -11041,7 +11365,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>511</v>
       </c>
@@ -11049,7 +11373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>511</v>
       </c>
@@ -11057,7 +11381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>511</v>
       </c>
@@ -11065,7 +11389,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>511</v>
       </c>
@@ -11073,7 +11397,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>511</v>
       </c>
@@ -11081,7 +11405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>511</v>
       </c>
@@ -11089,7 +11413,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>511</v>
       </c>
@@ -11097,7 +11421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>511</v>
       </c>
@@ -11105,7 +11429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>511</v>
       </c>
@@ -11113,7 +11437,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>511</v>
       </c>
@@ -11121,7 +11445,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>511</v>
       </c>
@@ -11129,7 +11453,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>511</v>
       </c>
@@ -11137,7 +11461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>511</v>
       </c>
@@ -11145,7 +11469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>511</v>
       </c>
@@ -11153,7 +11477,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>511</v>
       </c>
@@ -11161,7 +11485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>511</v>
       </c>
@@ -11169,7 +11493,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>511</v>
       </c>
@@ -11177,7 +11501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>511</v>
       </c>
@@ -11185,7 +11509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>511</v>
       </c>
@@ -11193,7 +11517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>511</v>
       </c>
@@ -11201,7 +11525,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>511</v>
       </c>
@@ -11209,7 +11533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>511</v>
       </c>
@@ -11217,7 +11541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>511</v>
       </c>
@@ -11225,7 +11549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>511</v>
       </c>
@@ -11233,7 +11557,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>511</v>
       </c>
@@ -11241,7 +11565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>511</v>
       </c>
@@ -11249,7 +11573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>511</v>
       </c>
@@ -11257,7 +11581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>511</v>
       </c>
@@ -11265,7 +11589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>511</v>
       </c>
@@ -11273,7 +11597,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>511</v>
       </c>
@@ -11281,7 +11605,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>511</v>
       </c>
@@ -11289,7 +11613,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>510</v>
       </c>
@@ -11306,7 +11630,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>510</v>
       </c>
@@ -11323,7 +11647,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>510</v>
       </c>
@@ -11340,7 +11664,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>510</v>
       </c>
@@ -11357,7 +11681,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>510</v>
       </c>
@@ -11374,7 +11698,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>510</v>
       </c>
@@ -11391,7 +11715,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>510</v>
       </c>
@@ -11408,7 +11732,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>510</v>
       </c>
@@ -11425,7 +11749,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>511</v>
       </c>
@@ -11433,7 +11757,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>511</v>
       </c>
@@ -11441,7 +11765,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>510</v>
       </c>
@@ -11458,7 +11782,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>510</v>
       </c>
@@ -11475,7 +11799,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>510</v>
       </c>
@@ -11492,7 +11816,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>511</v>
       </c>
@@ -11500,7 +11824,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>511</v>
       </c>
@@ -11508,7 +11832,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>510</v>
       </c>
@@ -11525,7 +11849,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>511</v>
       </c>
@@ -11533,7 +11857,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>510</v>
       </c>
@@ -11550,7 +11874,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>511</v>
       </c>
@@ -11558,7 +11882,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>510</v>
       </c>
@@ -11575,7 +11899,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>511</v>
       </c>
@@ -11583,7 +11907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>511</v>
       </c>
@@ -11591,7 +11915,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>510</v>
       </c>
@@ -11608,7 +11932,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>511</v>
       </c>
@@ -11616,7 +11940,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>511</v>
       </c>
@@ -11624,7 +11948,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>511</v>
       </c>
@@ -11632,7 +11956,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>511</v>
       </c>
@@ -11640,7 +11964,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>510</v>
       </c>
@@ -11657,7 +11981,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>511</v>
       </c>
@@ -11665,7 +11989,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>511</v>
       </c>
@@ -11673,7 +11997,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>511</v>
       </c>
@@ -11681,7 +12005,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -11698,7 +12022,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>510</v>
       </c>
@@ -11715,7 +12039,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>510</v>
       </c>
@@ -11732,7 +12056,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>510</v>
       </c>
@@ -11749,7 +12073,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>511</v>
       </c>
@@ -11757,7 +12081,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>511</v>
       </c>
@@ -11765,7 +12089,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>511</v>
       </c>
@@ -11773,7 +12097,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>511</v>
       </c>
@@ -11781,7 +12105,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>511</v>
       </c>
@@ -11789,7 +12113,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>511</v>
       </c>
@@ -11797,7 +12121,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>511</v>
       </c>
@@ -11805,7 +12129,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>511</v>
       </c>
@@ -11813,7 +12137,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>511</v>
       </c>
@@ -11821,7 +12145,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>511</v>
       </c>
@@ -11829,7 +12153,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>511</v>
       </c>
@@ -11837,7 +12161,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>511</v>
       </c>
@@ -11845,7 +12169,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>511</v>
       </c>
@@ -11853,7 +12177,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>511</v>
       </c>
@@ -11861,7 +12185,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>511</v>
       </c>
@@ -11869,7 +12193,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>511</v>
       </c>
@@ -11877,7 +12201,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>511</v>
       </c>
@@ -11885,7 +12209,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>511</v>
       </c>
@@ -11893,7 +12217,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>511</v>
       </c>
@@ -11901,7 +12225,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>511</v>
       </c>
@@ -11909,7 +12233,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>511</v>
       </c>
@@ -11917,7 +12241,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>511</v>
       </c>
@@ -11925,7 +12249,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>511</v>
       </c>
@@ -11933,7 +12257,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>511</v>
       </c>
@@ -11941,7 +12265,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>511</v>
       </c>
@@ -11949,7 +12273,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>511</v>
       </c>
@@ -11957,7 +12281,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>511</v>
       </c>
@@ -11965,7 +12289,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>511</v>
       </c>
@@ -11973,7 +12297,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>511</v>
       </c>
@@ -11981,7 +12305,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>511</v>
       </c>
@@ -11989,7 +12313,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>511</v>
       </c>
@@ -11997,7 +12321,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>511</v>
       </c>
@@ -12005,7 +12329,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>511</v>
       </c>
@@ -12013,7 +12337,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>511</v>
       </c>
@@ -12021,7 +12345,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>511</v>
       </c>
@@ -12029,7 +12353,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>511</v>
       </c>
@@ -12037,7 +12361,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>511</v>
       </c>
@@ -12045,7 +12369,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>511</v>
       </c>
@@ -12053,7 +12377,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>511</v>
       </c>
@@ -12061,7 +12385,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>511</v>
       </c>
@@ -12069,7 +12393,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>511</v>
       </c>
@@ -12077,7 +12401,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>511</v>
       </c>
@@ -12085,7 +12409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>511</v>
       </c>
@@ -12093,7 +12417,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>511</v>
       </c>
@@ -12101,7 +12425,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>511</v>
       </c>
@@ -12109,7 +12433,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>511</v>
       </c>
@@ -12117,7 +12441,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>511</v>
       </c>
@@ -12125,7 +12449,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>511</v>
       </c>
@@ -12133,7 +12457,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>511</v>
       </c>
@@ -12141,7 +12465,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>511</v>
       </c>
@@ -12149,7 +12473,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>511</v>
       </c>
@@ -12157,7 +12481,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>511</v>
       </c>
@@ -12165,7 +12489,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>511</v>
       </c>
@@ -12173,7 +12497,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>511</v>
       </c>
@@ -12181,7 +12505,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>511</v>
       </c>
@@ -12189,7 +12513,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>511</v>
       </c>
@@ -12197,7 +12521,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>511</v>
       </c>
@@ -12205,7 +12529,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>511</v>
       </c>
@@ -12213,7 +12537,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>511</v>
       </c>
@@ -12221,7 +12545,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>511</v>
       </c>
@@ -12229,7 +12553,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>511</v>
       </c>
@@ -12237,7 +12561,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>511</v>
       </c>
@@ -12245,7 +12569,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>511</v>
       </c>
@@ -12253,7 +12577,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>511</v>
       </c>
@@ -12261,7 +12585,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>511</v>
       </c>
@@ -12269,7 +12593,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>511</v>
       </c>
@@ -12277,7 +12601,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>511</v>
       </c>
@@ -12285,7 +12609,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>511</v>
       </c>
@@ -12293,7 +12617,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>511</v>
       </c>
@@ -12301,7 +12625,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>511</v>
       </c>
@@ -12309,7 +12633,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>511</v>
       </c>
@@ -12317,7 +12641,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>511</v>
       </c>
@@ -12325,7 +12649,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>511</v>
       </c>
@@ -12333,7 +12657,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>511</v>
       </c>
@@ -12341,7 +12665,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>511</v>
       </c>
@@ -12349,7 +12673,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>511</v>
       </c>
@@ -12357,7 +12681,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>511</v>
       </c>
@@ -12365,7 +12689,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>511</v>
       </c>
@@ -12373,7 +12697,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>511</v>
       </c>
@@ -12381,7 +12705,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>511</v>
       </c>
@@ -12389,7 +12713,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>511</v>
       </c>
@@ -12397,7 +12721,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>511</v>
       </c>
@@ -12405,7 +12729,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>511</v>
       </c>
@@ -12413,7 +12737,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>511</v>
       </c>
@@ -12421,7 +12745,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>511</v>
       </c>
@@ -12429,7 +12753,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>40000</v>
       </c>
@@ -12446,7 +12770,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>40000</v>
       </c>
@@ -12459,7 +12783,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>40000</v>
       </c>
@@ -12474,7 +12798,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>40000</v>
       </c>
@@ -12487,7 +12811,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>40000</v>
       </c>
@@ -12502,7 +12826,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>40000</v>
       </c>
@@ -12515,7 +12839,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>40000</v>
       </c>
@@ -12530,7 +12854,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>40000</v>
       </c>
@@ -12543,7 +12867,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>40000</v>
       </c>
@@ -12558,7 +12882,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>40000</v>
       </c>
@@ -12571,7 +12895,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>40000</v>
       </c>
@@ -12586,7 +12910,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>40000</v>
       </c>
@@ -12599,7 +12923,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>40000</v>
       </c>
@@ -12614,7 +12938,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>40000</v>
       </c>
@@ -12627,7 +12951,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>40000</v>
       </c>
@@ -12642,7 +12966,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>40000</v>
       </c>
@@ -12655,7 +12979,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>40000</v>
       </c>
@@ -12670,7 +12994,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>40000</v>
       </c>
@@ -12683,7 +13007,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>40000</v>
       </c>
@@ -12698,7 +13022,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>40000</v>
       </c>
@@ -12711,7 +13035,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>511</v>
       </c>
@@ -12719,7 +13043,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>511</v>
       </c>
@@ -12727,7 +13051,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>511</v>
       </c>
@@ -12735,7 +13059,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>511</v>
       </c>
@@ -12743,7 +13067,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>511</v>
       </c>
@@ -12751,7 +13075,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>511</v>
       </c>
@@ -12759,7 +13083,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>511</v>
       </c>
@@ -12767,7 +13091,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>511</v>
       </c>
@@ -12775,7 +13099,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>511</v>
       </c>
@@ -12783,7 +13107,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>511</v>
       </c>
@@ -12791,7 +13115,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>511</v>
       </c>
@@ -12799,7 +13123,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>511</v>
       </c>
@@ -12807,7 +13131,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>511</v>
       </c>
@@ -12815,7 +13139,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>511</v>
       </c>
@@ -12823,7 +13147,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>511</v>
       </c>
@@ -12831,7 +13155,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>511</v>
       </c>
@@ -12839,7 +13163,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>511</v>
       </c>
@@ -12847,7 +13171,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>511</v>
       </c>
@@ -12855,7 +13179,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>511</v>
       </c>
@@ -12863,7 +13187,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>511</v>
       </c>
@@ -12871,7 +13195,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>511</v>
       </c>
@@ -12882,7 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>511</v>
       </c>
@@ -12893,7 +13217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>511</v>
       </c>
@@ -12904,7 +13228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>511</v>
       </c>
@@ -12915,7 +13239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>40000</v>
       </c>
@@ -12926,7 +13250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>40000</v>
       </c>
@@ -12937,7 +13261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>40000</v>
       </c>
@@ -12948,7 +13272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>40000</v>
       </c>
@@ -12959,7 +13283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>40000</v>
       </c>
@@ -12970,37 +13294,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C250" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C251" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C252" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C253" s="1">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C254" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C255" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C256" s="1">
         <v>255</v>
       </c>

--- a/ATO/other/indexes.xlsx
+++ b/ATO/other/indexes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spc2\Documents\MEGAsync\ATO\ATO\other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\MEGA同期\ATO\ATO\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB24533-BCD4-4B5A-AFA8-DE11B044842A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="5" r:id="rId1"/>
@@ -20,22 +19,18 @@
     <sheet name="Panel" sheetId="1" r:id="rId5"/>
     <sheet name="Sound" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="762">
   <si>
     <t>//ats92=0,切</t>
   </si>
@@ -2553,89 +2548,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユニット2-1</t>
+    <t>ユニット０</t>
+  </si>
+  <si>
+    <t>ユニット0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユニット2-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット3-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット3-2</t>
-  </si>
-  <si>
-    <t>ユニット4-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット4-2</t>
-  </si>
-  <si>
-    <t>ユニット5-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット5-2</t>
-  </si>
-  <si>
-    <t>ユニット1-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット1-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット6-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット6-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット7-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット7-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット8-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット8-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット9-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット9-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット0-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニット0-2</t>
-  </si>
-  <si>
-    <t>ユニット０</t>
+    <t>ユニット1</t>
+  </si>
+  <si>
+    <t>ユニット2</t>
+  </si>
+  <si>
+    <t>ユニット3</t>
+  </si>
+  <si>
+    <t>ユニット4</t>
+  </si>
+  <si>
+    <t>ユニット5</t>
+  </si>
+  <si>
+    <t>ユニット6</t>
+  </si>
+  <si>
+    <t>ユニット7</t>
+  </si>
+  <si>
+    <t>ユニット8</t>
+  </si>
+  <si>
+    <t>ユニット9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -2985,16 +2935,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>721</v>
       </c>
@@ -3005,7 +2955,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>716</v>
       </c>
@@ -3013,7 +2963,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>718</v>
       </c>
@@ -3030,7 +2980,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>12</v>
       </c>
@@ -3044,7 +2994,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>21</v>
       </c>
@@ -3055,7 +3005,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>22</v>
       </c>
@@ -3066,7 +3016,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>23</v>
       </c>
@@ -3077,7 +3027,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>24</v>
       </c>
@@ -3088,7 +3038,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>25</v>
       </c>
@@ -3099,7 +3049,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>31</v>
       </c>
@@ -3113,7 +3063,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>722</v>
       </c>
@@ -3127,7 +3077,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>136</v>
       </c>
@@ -3141,7 +3091,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>137</v>
       </c>
@@ -3155,7 +3105,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>138</v>
       </c>
@@ -3169,7 +3119,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>139</v>
       </c>
@@ -3180,7 +3130,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>140</v>
       </c>
@@ -3194,7 +3144,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>141</v>
       </c>
@@ -3205,7 +3155,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>142</v>
       </c>
@@ -3216,7 +3166,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>143</v>
       </c>
@@ -3227,7 +3177,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>144</v>
       </c>
@@ -3241,7 +3191,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>145</v>
       </c>
@@ -3255,7 +3205,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>146</v>
       </c>
@@ -3269,7 +3219,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>147</v>
       </c>
@@ -3277,7 +3227,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>148</v>
       </c>
@@ -3288,7 +3238,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>149</v>
       </c>
@@ -3299,17 +3249,17 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>722</v>
       </c>
@@ -3326,7 +3276,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>127</v>
       </c>
@@ -3340,7 +3290,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>128</v>
       </c>
@@ -3354,7 +3304,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>129</v>
       </c>
@@ -3368,7 +3318,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>130</v>
       </c>
@@ -3382,10 +3332,10 @@
         <v>679</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>722</v>
       </c>
@@ -3402,7 +3352,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>243</v>
       </c>
@@ -3416,7 +3366,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>244</v>
       </c>
@@ -3438,19 +3388,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>727</v>
       </c>
@@ -3488,7 +3438,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3520,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3535,7 +3485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3550,7 +3500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3565,7 +3515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3580,7 +3530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3588,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3596,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3604,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3612,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3629,7 +3579,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3644,7 +3594,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3659,7 +3609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3674,7 +3624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3689,7 +3639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3704,7 +3654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3719,7 +3669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3734,7 +3684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3749,7 +3699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3764,7 +3714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3779,7 +3729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3794,7 +3744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3809,7 +3759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3824,7 +3774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3839,7 +3789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3854,7 +3804,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3869,7 +3819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3884,7 +3834,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3899,7 +3849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3914,7 +3864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3929,7 +3879,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3944,7 +3894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3959,7 +3909,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3974,7 +3924,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3989,7 +3939,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3999,7 +3949,7 @@
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4014,7 +3964,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4029,7 +3979,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4038,7 +3988,7 @@
       </c>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4058,7 +4008,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4073,7 +4023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4091,7 +4041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4109,7 +4059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4127,7 +4077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4145,7 +4095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4160,7 +4110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4175,7 +4125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4193,7 +4143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4208,7 +4158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4226,7 +4176,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4244,7 +4194,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4261,7 +4211,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4276,7 +4226,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4291,7 +4241,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4306,7 +4256,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4318,7 +4268,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
@@ -4342,7 +4292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4352,9 +4302,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>727</v>
       </c>
@@ -4524,7 +4474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>641</v>
       </c>
@@ -4587,7 +4537,7 @@
       <c r="BC2" s="5"/>
       <c r="BD2" s="5"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>728</v>
       </c>
@@ -4754,7 +4704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>733</v>
       </c>
@@ -4921,7 +4871,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>732</v>
       </c>
@@ -5088,7 +5038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>729</v>
       </c>
@@ -5255,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>731</v>
       </c>
@@ -5445,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>730</v>
       </c>
@@ -5629,130 +5579,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
     </row>
   </sheetData>
@@ -5769,14 +5719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>554</v>
       </c>
@@ -5806,7 +5756,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5820,7 +5770,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5837,7 +5787,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5854,7 +5804,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5868,7 +5818,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5882,7 +5832,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5899,7 +5849,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5913,7 +5863,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5930,7 +5880,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5941,7 +5891,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5961,7 +5911,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5978,7 +5928,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5989,7 +5939,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6003,7 +5953,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6014,7 +5964,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6025,7 +5975,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6033,7 +5983,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6047,7 +5997,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6058,7 +6008,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6072,7 +6022,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6086,7 +6036,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6094,7 +6044,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6105,7 +6055,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6116,7 +6066,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6127,7 +6077,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6141,7 +6091,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6155,32 +6105,32 @@
         <v>714</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6194,7 +6144,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6208,7 +6158,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6222,7 +6172,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6236,7 +6186,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6250,32 +6200,32 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6301,22 +6251,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="F196" sqref="F196"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>510</v>
       </c>
@@ -6336,7 +6286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -6356,7 +6306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>510</v>
       </c>
@@ -6376,7 +6326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>510</v>
       </c>
@@ -6396,7 +6346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -6407,7 +6357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -6427,7 +6377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>510</v>
       </c>
@@ -6447,7 +6397,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -6467,7 +6417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -6478,7 +6428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>511</v>
       </c>
@@ -6486,7 +6436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>510</v>
       </c>
@@ -6503,7 +6453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -6523,7 +6473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>510</v>
       </c>
@@ -6543,7 +6493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>510</v>
       </c>
@@ -6563,7 +6513,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -6583,7 +6533,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -6603,7 +6553,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>510</v>
       </c>
@@ -6623,7 +6573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>510</v>
       </c>
@@ -6643,7 +6593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -6663,7 +6613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>510</v>
       </c>
@@ -6683,7 +6633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>510</v>
       </c>
@@ -6703,7 +6653,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>510</v>
       </c>
@@ -6723,7 +6673,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -6743,7 +6693,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>510</v>
       </c>
@@ -6763,7 +6713,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>740</v>
       </c>
@@ -6783,7 +6733,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>510</v>
       </c>
@@ -6803,7 +6753,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>510</v>
       </c>
@@ -6823,7 +6773,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>510</v>
       </c>
@@ -6843,7 +6793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>510</v>
       </c>
@@ -6863,7 +6813,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>510</v>
       </c>
@@ -6883,7 +6833,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>510</v>
       </c>
@@ -6903,7 +6853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>510</v>
       </c>
@@ -6923,7 +6873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>510</v>
       </c>
@@ -6943,7 +6893,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>510</v>
       </c>
@@ -6963,7 +6913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>510</v>
       </c>
@@ -6983,7 +6933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>511</v>
       </c>
@@ -6991,7 +6941,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>510</v>
       </c>
@@ -7011,7 +6961,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>510</v>
       </c>
@@ -7031,7 +6981,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>510</v>
       </c>
@@ -7051,7 +7001,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>510</v>
       </c>
@@ -7071,7 +7021,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>511</v>
       </c>
@@ -7079,7 +7029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>510</v>
       </c>
@@ -7099,7 +7049,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>510</v>
       </c>
@@ -7119,7 +7069,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>510</v>
       </c>
@@ -7139,7 +7089,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>510</v>
       </c>
@@ -7159,7 +7109,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>510</v>
       </c>
@@ -7179,7 +7129,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>510</v>
       </c>
@@ -7199,7 +7149,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -7219,7 +7169,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>510</v>
       </c>
@@ -7239,7 +7189,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>510</v>
       </c>
@@ -7259,7 +7209,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>510</v>
       </c>
@@ -7279,7 +7229,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>510</v>
       </c>
@@ -7299,7 +7249,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>510</v>
       </c>
@@ -7319,7 +7269,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>510</v>
       </c>
@@ -7339,7 +7289,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>510</v>
       </c>
@@ -7359,7 +7309,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>510</v>
       </c>
@@ -7379,7 +7329,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>510</v>
       </c>
@@ -7396,7 +7346,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>510</v>
       </c>
@@ -7416,7 +7366,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>510</v>
       </c>
@@ -7436,7 +7386,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>510</v>
       </c>
@@ -7456,7 +7406,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>510</v>
       </c>
@@ -7476,7 +7426,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>510</v>
       </c>
@@ -7493,7 +7443,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>510</v>
       </c>
@@ -7513,7 +7463,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>510</v>
       </c>
@@ -7533,7 +7483,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>510</v>
       </c>
@@ -7553,7 +7503,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>510</v>
       </c>
@@ -7573,7 +7523,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>510</v>
       </c>
@@ -7593,7 +7543,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>673</v>
       </c>
@@ -7607,7 +7557,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>510</v>
       </c>
@@ -7627,7 +7577,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>510</v>
       </c>
@@ -7644,7 +7594,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>510</v>
       </c>
@@ -7661,7 +7611,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>511</v>
       </c>
@@ -7669,7 +7619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>510</v>
       </c>
@@ -7686,7 +7636,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>510</v>
       </c>
@@ -7706,7 +7656,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>510</v>
       </c>
@@ -7726,7 +7676,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>510</v>
       </c>
@@ -7746,7 +7696,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>510</v>
       </c>
@@ -7766,7 +7716,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>510</v>
       </c>
@@ -7786,7 +7736,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>510</v>
       </c>
@@ -7800,7 +7750,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>510</v>
       </c>
@@ -7814,7 +7764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>511</v>
       </c>
@@ -7822,7 +7772,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>510</v>
       </c>
@@ -7839,7 +7789,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>510</v>
       </c>
@@ -7856,7 +7806,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>511</v>
       </c>
@@ -7864,7 +7814,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>511</v>
       </c>
@@ -7872,7 +7822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>511</v>
       </c>
@@ -7880,7 +7830,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>510</v>
       </c>
@@ -7897,7 +7847,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>511</v>
       </c>
@@ -7905,7 +7855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>511</v>
       </c>
@@ -7913,7 +7863,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>511</v>
       </c>
@@ -7921,7 +7871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>511</v>
       </c>
@@ -7929,7 +7879,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>510</v>
       </c>
@@ -7943,7 +7893,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>510</v>
       </c>
@@ -7960,7 +7910,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>511</v>
       </c>
@@ -7968,7 +7918,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>511</v>
       </c>
@@ -7976,7 +7926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>511</v>
       </c>
@@ -7984,7 +7934,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>510</v>
       </c>
@@ -8004,27 +7954,27 @@
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C98" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C99" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C100" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C101" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>510</v>
       </c>
@@ -8044,7 +7994,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>510</v>
       </c>
@@ -8064,7 +8014,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>510</v>
       </c>
@@ -8078,7 +8028,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>510</v>
       </c>
@@ -8098,7 +8048,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>510</v>
       </c>
@@ -8118,7 +8068,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>510</v>
       </c>
@@ -8138,7 +8088,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>510</v>
       </c>
@@ -8155,7 +8105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>510</v>
       </c>
@@ -8172,7 +8122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>510</v>
       </c>
@@ -8189,7 +8139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>510</v>
       </c>
@@ -8206,7 +8156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -8223,7 +8173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>510</v>
       </c>
@@ -8240,7 +8190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>510</v>
       </c>
@@ -8257,7 +8207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>510</v>
       </c>
@@ -8274,7 +8224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>510</v>
       </c>
@@ -8291,7 +8241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>510</v>
       </c>
@@ -8308,7 +8258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>510</v>
       </c>
@@ -8325,7 +8275,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>510</v>
       </c>
@@ -8342,7 +8292,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>510</v>
       </c>
@@ -8359,7 +8309,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>510</v>
       </c>
@@ -8376,7 +8326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>510</v>
       </c>
@@ -8393,7 +8343,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>510</v>
       </c>
@@ -8410,7 +8360,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>510</v>
       </c>
@@ -8427,7 +8377,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>510</v>
       </c>
@@ -8444,7 +8394,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>510</v>
       </c>
@@ -8461,92 +8411,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127">
-        <v>40000</v>
-      </c>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C127" s="1">
         <v>126</v>
       </c>
-      <c r="D127" t="s">
-        <v>674</v>
-      </c>
-      <c r="E127" t="s">
-        <v>675</v>
-      </c>
-      <c r="F127" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128">
-        <v>40000</v>
-      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C128" s="1">
         <v>127</v>
       </c>
-      <c r="D128" t="s">
-        <v>674</v>
-      </c>
-      <c r="E128" t="s">
-        <v>676</v>
-      </c>
-      <c r="F128" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A129">
-        <v>40000</v>
-      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C129" s="1">
         <v>128</v>
       </c>
-      <c r="D129" t="s">
-        <v>674</v>
-      </c>
-      <c r="E129" t="s">
-        <v>677</v>
-      </c>
-      <c r="F129" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A130">
-        <v>40000</v>
-      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C130" s="1">
         <v>129</v>
       </c>
-      <c r="D130" t="s">
-        <v>674</v>
-      </c>
-      <c r="E130" t="s">
-        <v>678</v>
-      </c>
-      <c r="F130" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A131">
-        <v>40000</v>
-      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C131" s="1">
         <v>130</v>
       </c>
-      <c r="D131" t="s">
-        <v>674</v>
-      </c>
-      <c r="E131" t="s">
-        <v>680</v>
-      </c>
-      <c r="F131" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>510</v>
       </c>
@@ -8566,7 +8456,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>510</v>
       </c>
@@ -8586,7 +8476,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>510</v>
       </c>
@@ -8606,7 +8496,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>510</v>
       </c>
@@ -8626,7 +8516,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>510</v>
       </c>
@@ -8646,7 +8536,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>412</v>
       </c>
@@ -8669,7 +8559,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>412</v>
       </c>
@@ -8692,7 +8582,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>412</v>
       </c>
@@ -8718,7 +8608,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>412</v>
       </c>
@@ -8741,7 +8631,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>412</v>
       </c>
@@ -8767,7 +8657,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>412</v>
       </c>
@@ -8790,7 +8680,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>412</v>
       </c>
@@ -8804,7 +8694,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>412</v>
       </c>
@@ -8818,7 +8708,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>412</v>
       </c>
@@ -8835,7 +8725,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>412</v>
       </c>
@@ -8852,7 +8742,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -8875,7 +8765,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>412</v>
       </c>
@@ -8889,7 +8779,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>412</v>
       </c>
@@ -8903,7 +8793,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>412</v>
       </c>
@@ -8926,7 +8816,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>412</v>
       </c>
@@ -8943,7 +8833,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>510</v>
       </c>
@@ -8960,7 +8850,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>510</v>
       </c>
@@ -8977,7 +8867,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>510</v>
       </c>
@@ -8997,7 +8887,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>510</v>
       </c>
@@ -9017,7 +8907,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>510</v>
       </c>
@@ -9037,7 +8927,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>510</v>
       </c>
@@ -9054,7 +8944,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>510</v>
       </c>
@@ -9071,7 +8961,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>510</v>
       </c>
@@ -9091,7 +8981,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>510</v>
       </c>
@@ -9111,7 +9001,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>510</v>
       </c>
@@ -9128,7 +9018,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>510</v>
       </c>
@@ -9145,7 +9035,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>510</v>
       </c>
@@ -9165,7 +9055,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>510</v>
       </c>
@@ -9185,7 +9075,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>510</v>
       </c>
@@ -9205,7 +9095,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>510</v>
       </c>
@@ -9225,7 +9115,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>510</v>
       </c>
@@ -9242,7 +9132,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>510</v>
       </c>
@@ -9259,7 +9149,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>510</v>
       </c>
@@ -9279,7 +9169,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>510</v>
       </c>
@@ -9299,7 +9189,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>511</v>
       </c>
@@ -9307,7 +9197,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>510</v>
       </c>
@@ -9327,7 +9217,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>510</v>
       </c>
@@ -9344,7 +9234,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>510</v>
       </c>
@@ -9361,7 +9251,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>510</v>
       </c>
@@ -9378,7 +9268,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>510</v>
       </c>
@@ -9395,7 +9285,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>510</v>
       </c>
@@ -9415,7 +9305,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>510</v>
       </c>
@@ -9432,7 +9322,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>511</v>
       </c>
@@ -9440,7 +9330,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>511</v>
       </c>
@@ -9448,7 +9338,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>511</v>
       </c>
@@ -9456,7 +9346,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>510</v>
       </c>
@@ -9476,7 +9366,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>510</v>
       </c>
@@ -9496,7 +9386,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>511</v>
       </c>
@@ -9504,7 +9394,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>511</v>
       </c>
@@ -9512,7 +9402,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>511</v>
       </c>
@@ -9520,7 +9410,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>511</v>
       </c>
@@ -9528,7 +9418,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>511</v>
       </c>
@@ -9536,7 +9426,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>511</v>
       </c>
@@ -9544,7 +9434,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>511</v>
       </c>
@@ -9552,7 +9442,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>511</v>
       </c>
@@ -9560,7 +9450,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>511</v>
       </c>
@@ -9568,7 +9458,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>510</v>
       </c>
@@ -9588,7 +9478,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>510</v>
       </c>
@@ -9608,7 +9498,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>741</v>
       </c>
@@ -9622,7 +9512,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>741</v>
       </c>
@@ -9633,10 +9523,10 @@
         <v>743</v>
       </c>
       <c r="E196" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>741</v>
       </c>
@@ -9650,7 +9540,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>741</v>
       </c>
@@ -9664,7 +9554,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>741</v>
       </c>
@@ -9678,7 +9568,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>741</v>
       </c>
@@ -9692,7 +9582,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>741</v>
       </c>
@@ -9706,7 +9596,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>510</v>
       </c>
@@ -9726,7 +9616,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>510</v>
       </c>
@@ -9746,7 +9636,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>510</v>
       </c>
@@ -9766,7 +9656,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>510</v>
       </c>
@@ -9786,7 +9676,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>510</v>
       </c>
@@ -9806,7 +9696,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>510</v>
       </c>
@@ -9826,43 +9716,22 @@
         <v>374</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A208" t="s">
-        <v>741</v>
-      </c>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C208" s="1">
         <v>207</v>
       </c>
-      <c r="D208" t="s">
-        <v>750</v>
-      </c>
-      <c r="E208" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A209" t="s">
-        <v>741</v>
-      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C209" s="1">
         <v>208</v>
       </c>
-      <c r="E209" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A210" t="s">
-        <v>741</v>
-      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C210" s="1">
         <v>209</v>
       </c>
-      <c r="E210" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>510</v>
       </c>
@@ -9882,7 +9751,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>510</v>
       </c>
@@ -9902,7 +9771,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>510</v>
       </c>
@@ -9922,7 +9791,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>511</v>
       </c>
@@ -9930,7 +9799,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>510</v>
       </c>
@@ -9950,7 +9819,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>741</v>
       </c>
@@ -9961,10 +9830,10 @@
         <v>750</v>
       </c>
       <c r="E216" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>741</v>
       </c>
@@ -9975,10 +9844,10 @@
         <v>28</v>
       </c>
       <c r="E217" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>741</v>
       </c>
@@ -9989,10 +9858,10 @@
         <v>28</v>
       </c>
       <c r="E218" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>741</v>
       </c>
@@ -10003,10 +9872,10 @@
         <v>28</v>
       </c>
       <c r="E219" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>741</v>
       </c>
@@ -10017,10 +9886,10 @@
         <v>28</v>
       </c>
       <c r="E220" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>741</v>
       </c>
@@ -10031,10 +9900,10 @@
         <v>28</v>
       </c>
       <c r="E221" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>741</v>
       </c>
@@ -10045,10 +9914,10 @@
         <v>28</v>
       </c>
       <c r="E222" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>741</v>
       </c>
@@ -10059,10 +9928,10 @@
         <v>28</v>
       </c>
       <c r="E223" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>741</v>
       </c>
@@ -10073,10 +9942,10 @@
         <v>28</v>
       </c>
       <c r="E224" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>741</v>
       </c>
@@ -10090,105 +9959,87 @@
         <v>761</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A226" t="s">
-        <v>741</v>
-      </c>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C226" s="1">
         <v>225</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>674</v>
       </c>
       <c r="E226" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A227" t="s">
-        <v>741</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="F226" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C227" s="1">
         <v>226</v>
       </c>
       <c r="D227" t="s">
-        <v>28</v>
+        <v>674</v>
       </c>
       <c r="E227" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A228" t="s">
-        <v>741</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="F227" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C228" s="1">
         <v>227</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>674</v>
       </c>
       <c r="E228" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A229" t="s">
-        <v>741</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="F228" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C229" s="1">
         <v>228</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>674</v>
       </c>
       <c r="E229" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A230" t="s">
-        <v>741</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="F229" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C230" s="1">
         <v>229</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
+        <v>674</v>
       </c>
       <c r="E230" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A231" t="s">
-        <v>741</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="F230" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C231" s="1">
         <v>230</v>
       </c>
-      <c r="D231" t="s">
-        <v>28</v>
-      </c>
-      <c r="E231" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
-        <v>741</v>
-      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C232" s="1">
         <v>231</v>
       </c>
-      <c r="D232" t="s">
-        <v>28</v>
-      </c>
-      <c r="E232" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>510</v>
       </c>
@@ -10208,7 +10059,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>511</v>
       </c>
@@ -10216,7 +10067,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>511</v>
       </c>
@@ -10224,7 +10075,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>510</v>
       </c>
@@ -10244,7 +10095,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>510</v>
       </c>
@@ -10264,7 +10115,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>510</v>
       </c>
@@ -10284,7 +10135,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>510</v>
       </c>
@@ -10304,7 +10155,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>510</v>
       </c>
@@ -10324,7 +10175,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>510</v>
       </c>
@@ -10344,7 +10195,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>510</v>
       </c>
@@ -10364,7 +10215,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>40000</v>
       </c>
@@ -10381,7 +10232,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>40000</v>
       </c>
@@ -10398,7 +10249,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>40000</v>
       </c>
@@ -10415,7 +10266,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>510</v>
       </c>
@@ -10435,7 +10286,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>510</v>
       </c>
@@ -10455,7 +10306,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>510</v>
       </c>
@@ -10475,7 +10326,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>510</v>
       </c>
@@ -10495,7 +10346,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>510</v>
       </c>
@@ -10515,7 +10366,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>510</v>
       </c>
@@ -10535,7 +10386,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>510</v>
       </c>
@@ -10555,7 +10406,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>510</v>
       </c>
@@ -10575,7 +10426,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>510</v>
       </c>
@@ -10595,7 +10446,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>510</v>
       </c>
@@ -10615,7 +10466,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>511</v>
       </c>
@@ -10623,12 +10474,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
     </row>
   </sheetData>
@@ -10639,17 +10490,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>510</v>
       </c>
@@ -10666,7 +10517,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -10683,7 +10534,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>510</v>
       </c>
@@ -10700,7 +10551,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>510</v>
       </c>
@@ -10717,7 +10568,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -10734,7 +10585,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -10751,7 +10602,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>510</v>
       </c>
@@ -10768,7 +10619,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -10785,7 +10636,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -10802,7 +10653,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>510</v>
       </c>
@@ -10819,7 +10670,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>510</v>
       </c>
@@ -10833,7 +10684,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>510</v>
       </c>
@@ -10847,7 +10698,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>510</v>
       </c>
@@ -10861,7 +10712,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>510</v>
       </c>
@@ -10875,7 +10726,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>510</v>
       </c>
@@ -10889,7 +10740,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -10903,7 +10754,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>510</v>
       </c>
@@ -10920,7 +10771,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>510</v>
       </c>
@@ -10937,7 +10788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -10954,7 +10805,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>510</v>
       </c>
@@ -10971,7 +10822,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>510</v>
       </c>
@@ -10985,7 +10836,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>511</v>
       </c>
@@ -10993,7 +10844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -11010,7 +10861,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -11018,7 +10869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>510</v>
       </c>
@@ -11035,7 +10886,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>511</v>
       </c>
@@ -11043,7 +10894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>511</v>
       </c>
@@ -11051,7 +10902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>510</v>
       </c>
@@ -11068,7 +10919,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>510</v>
       </c>
@@ -11085,7 +10936,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>510</v>
       </c>
@@ -11099,7 +10950,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>510</v>
       </c>
@@ -11116,7 +10967,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>510</v>
       </c>
@@ -11133,7 +10984,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>510</v>
       </c>
@@ -11150,7 +11001,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>510</v>
       </c>
@@ -11167,7 +11018,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>510</v>
       </c>
@@ -11184,7 +11035,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>511</v>
       </c>
@@ -11192,7 +11043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>511</v>
       </c>
@@ -11200,7 +11051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>511</v>
       </c>
@@ -11208,7 +11059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>511</v>
       </c>
@@ -11216,7 +11067,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>511</v>
       </c>
@@ -11224,7 +11075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>510</v>
       </c>
@@ -11238,7 +11089,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>510</v>
       </c>
@@ -11255,7 +11106,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>510</v>
       </c>
@@ -11272,7 +11123,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>510</v>
       </c>
@@ -11289,7 +11140,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>510</v>
       </c>
@@ -11306,7 +11157,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>510</v>
       </c>
@@ -11323,7 +11174,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>510</v>
       </c>
@@ -11340,7 +11191,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -11357,7 +11208,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>511</v>
       </c>
@@ -11365,7 +11216,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>511</v>
       </c>
@@ -11373,7 +11224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>511</v>
       </c>
@@ -11381,7 +11232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>511</v>
       </c>
@@ -11389,7 +11240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>511</v>
       </c>
@@ -11397,7 +11248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>511</v>
       </c>
@@ -11405,7 +11256,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>511</v>
       </c>
@@ -11413,7 +11264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>511</v>
       </c>
@@ -11421,7 +11272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>511</v>
       </c>
@@ -11429,7 +11280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>511</v>
       </c>
@@ -11437,7 +11288,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>511</v>
       </c>
@@ -11445,7 +11296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>511</v>
       </c>
@@ -11453,7 +11304,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>511</v>
       </c>
@@ -11461,7 +11312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>511</v>
       </c>
@@ -11469,7 +11320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>511</v>
       </c>
@@ -11477,7 +11328,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>511</v>
       </c>
@@ -11485,7 +11336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>511</v>
       </c>
@@ -11493,7 +11344,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>511</v>
       </c>
@@ -11501,7 +11352,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>511</v>
       </c>
@@ -11509,7 +11360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>511</v>
       </c>
@@ -11517,7 +11368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>511</v>
       </c>
@@ -11525,7 +11376,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>511</v>
       </c>
@@ -11533,7 +11384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>511</v>
       </c>
@@ -11541,7 +11392,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>511</v>
       </c>
@@ -11549,7 +11400,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>511</v>
       </c>
@@ -11557,7 +11408,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>511</v>
       </c>
@@ -11565,7 +11416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>511</v>
       </c>
@@ -11573,7 +11424,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>511</v>
       </c>
@@ -11581,7 +11432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>511</v>
       </c>
@@ -11589,7 +11440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>511</v>
       </c>
@@ -11597,7 +11448,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>511</v>
       </c>
@@ -11605,7 +11456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>511</v>
       </c>
@@ -11613,7 +11464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>510</v>
       </c>
@@ -11630,7 +11481,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>510</v>
       </c>
@@ -11647,7 +11498,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>510</v>
       </c>
@@ -11664,7 +11515,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>510</v>
       </c>
@@ -11681,7 +11532,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>510</v>
       </c>
@@ -11698,7 +11549,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>510</v>
       </c>
@@ -11715,7 +11566,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>510</v>
       </c>
@@ -11732,7 +11583,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>510</v>
       </c>
@@ -11749,7 +11600,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>511</v>
       </c>
@@ -11757,7 +11608,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>511</v>
       </c>
@@ -11765,7 +11616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>510</v>
       </c>
@@ -11782,7 +11633,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>510</v>
       </c>
@@ -11799,7 +11650,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>510</v>
       </c>
@@ -11816,7 +11667,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>511</v>
       </c>
@@ -11824,7 +11675,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>511</v>
       </c>
@@ -11832,7 +11683,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>510</v>
       </c>
@@ -11849,7 +11700,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>511</v>
       </c>
@@ -11857,7 +11708,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>510</v>
       </c>
@@ -11874,7 +11725,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>511</v>
       </c>
@@ -11882,7 +11733,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>510</v>
       </c>
@@ -11899,7 +11750,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>511</v>
       </c>
@@ -11907,7 +11758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>511</v>
       </c>
@@ -11915,7 +11766,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>510</v>
       </c>
@@ -11932,7 +11783,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>511</v>
       </c>
@@ -11940,7 +11791,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>511</v>
       </c>
@@ -11948,7 +11799,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>511</v>
       </c>
@@ -11956,7 +11807,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>511</v>
       </c>
@@ -11964,7 +11815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>510</v>
       </c>
@@ -11981,7 +11832,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>511</v>
       </c>
@@ -11989,7 +11840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>511</v>
       </c>
@@ -11997,7 +11848,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>511</v>
       </c>
@@ -12005,7 +11856,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>510</v>
       </c>
@@ -12022,7 +11873,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>510</v>
       </c>
@@ -12039,7 +11890,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>510</v>
       </c>
@@ -12056,7 +11907,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>510</v>
       </c>
@@ -12073,7 +11924,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>511</v>
       </c>
@@ -12081,7 +11932,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>511</v>
       </c>
@@ -12089,7 +11940,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>511</v>
       </c>
@@ -12097,7 +11948,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>511</v>
       </c>
@@ -12105,7 +11956,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>511</v>
       </c>
@@ -12113,7 +11964,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>511</v>
       </c>
@@ -12121,7 +11972,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>511</v>
       </c>
@@ -12129,7 +11980,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>511</v>
       </c>
@@ -12137,7 +11988,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>511</v>
       </c>
@@ -12145,7 +11996,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>511</v>
       </c>
@@ -12153,7 +12004,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>511</v>
       </c>
@@ -12161,7 +12012,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>511</v>
       </c>
@@ -12169,7 +12020,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>511</v>
       </c>
@@ -12177,7 +12028,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>511</v>
       </c>
@@ -12185,7 +12036,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>511</v>
       </c>
@@ -12193,7 +12044,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>511</v>
       </c>
@@ -12201,7 +12052,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>511</v>
       </c>
@@ -12209,7 +12060,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>511</v>
       </c>
@@ -12217,7 +12068,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>511</v>
       </c>
@@ -12225,7 +12076,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>511</v>
       </c>
@@ -12233,7 +12084,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>511</v>
       </c>
@@ -12241,7 +12092,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>511</v>
       </c>
@@ -12249,7 +12100,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>511</v>
       </c>
@@ -12257,7 +12108,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>511</v>
       </c>
@@ -12265,7 +12116,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>511</v>
       </c>
@@ -12273,7 +12124,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>511</v>
       </c>
@@ -12281,7 +12132,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>511</v>
       </c>
@@ -12289,7 +12140,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>511</v>
       </c>
@@ -12297,7 +12148,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>511</v>
       </c>
@@ -12305,7 +12156,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>511</v>
       </c>
@@ -12313,7 +12164,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>511</v>
       </c>
@@ -12321,7 +12172,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>511</v>
       </c>
@@ -12329,7 +12180,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>511</v>
       </c>
@@ -12337,7 +12188,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>511</v>
       </c>
@@ -12345,7 +12196,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>511</v>
       </c>
@@ -12353,7 +12204,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>511</v>
       </c>
@@ -12361,7 +12212,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>511</v>
       </c>
@@ -12369,7 +12220,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>511</v>
       </c>
@@ -12377,7 +12228,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>511</v>
       </c>
@@ -12385,7 +12236,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>511</v>
       </c>
@@ -12393,7 +12244,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>511</v>
       </c>
@@ -12401,7 +12252,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>511</v>
       </c>
@@ -12409,7 +12260,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>511</v>
       </c>
@@ -12417,7 +12268,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>511</v>
       </c>
@@ -12425,7 +12276,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>511</v>
       </c>
@@ -12433,7 +12284,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>511</v>
       </c>
@@ -12441,7 +12292,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>511</v>
       </c>
@@ -12449,7 +12300,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>511</v>
       </c>
@@ -12457,7 +12308,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>511</v>
       </c>
@@ -12465,7 +12316,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>511</v>
       </c>
@@ -12473,7 +12324,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>511</v>
       </c>
@@ -12481,7 +12332,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>511</v>
       </c>
@@ -12489,7 +12340,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>511</v>
       </c>
@@ -12497,7 +12348,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>511</v>
       </c>
@@ -12505,7 +12356,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>511</v>
       </c>
@@ -12513,7 +12364,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>511</v>
       </c>
@@ -12521,7 +12372,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>511</v>
       </c>
@@ -12529,7 +12380,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>511</v>
       </c>
@@ -12537,7 +12388,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>511</v>
       </c>
@@ -12545,7 +12396,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>511</v>
       </c>
@@ -12553,7 +12404,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>511</v>
       </c>
@@ -12561,7 +12412,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>511</v>
       </c>
@@ -12569,7 +12420,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>511</v>
       </c>
@@ -12577,7 +12428,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>511</v>
       </c>
@@ -12585,7 +12436,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>511</v>
       </c>
@@ -12593,7 +12444,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>511</v>
       </c>
@@ -12601,7 +12452,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>511</v>
       </c>
@@ -12609,7 +12460,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>511</v>
       </c>
@@ -12617,7 +12468,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>511</v>
       </c>
@@ -12625,7 +12476,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>511</v>
       </c>
@@ -12633,7 +12484,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>511</v>
       </c>
@@ -12641,7 +12492,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>511</v>
       </c>
@@ -12649,7 +12500,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>511</v>
       </c>
@@ -12657,7 +12508,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>511</v>
       </c>
@@ -12665,7 +12516,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>511</v>
       </c>
@@ -12673,7 +12524,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>511</v>
       </c>
@@ -12681,7 +12532,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>511</v>
       </c>
@@ -12689,7 +12540,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>511</v>
       </c>
@@ -12697,7 +12548,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>511</v>
       </c>
@@ -12705,7 +12556,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>511</v>
       </c>
@@ -12713,7 +12564,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>511</v>
       </c>
@@ -12721,7 +12572,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>511</v>
       </c>
@@ -12729,7 +12580,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>511</v>
       </c>
@@ -12737,7 +12588,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>511</v>
       </c>
@@ -12745,7 +12596,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>511</v>
       </c>
@@ -12753,7 +12604,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>40000</v>
       </c>
@@ -12770,7 +12621,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>40000</v>
       </c>
@@ -12783,7 +12634,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>40000</v>
       </c>
@@ -12798,7 +12649,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>40000</v>
       </c>
@@ -12811,7 +12662,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>40000</v>
       </c>
@@ -12826,7 +12677,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>40000</v>
       </c>
@@ -12839,7 +12690,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>40000</v>
       </c>
@@ -12854,7 +12705,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>40000</v>
       </c>
@@ -12867,7 +12718,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>40000</v>
       </c>
@@ -12882,7 +12733,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>40000</v>
       </c>
@@ -12895,7 +12746,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>40000</v>
       </c>
@@ -12910,7 +12761,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>40000</v>
       </c>
@@ -12923,7 +12774,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>40000</v>
       </c>
@@ -12938,7 +12789,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>40000</v>
       </c>
@@ -12951,7 +12802,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>40000</v>
       </c>
@@ -12966,7 +12817,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>40000</v>
       </c>
@@ -12979,7 +12830,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>40000</v>
       </c>
@@ -12994,7 +12845,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>40000</v>
       </c>
@@ -13007,7 +12858,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>40000</v>
       </c>
@@ -13022,7 +12873,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>40000</v>
       </c>
@@ -13035,7 +12886,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>511</v>
       </c>
@@ -13043,7 +12894,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>511</v>
       </c>
@@ -13051,7 +12902,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>511</v>
       </c>
@@ -13059,7 +12910,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>511</v>
       </c>
@@ -13067,7 +12918,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>511</v>
       </c>
@@ -13075,7 +12926,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>511</v>
       </c>
@@ -13083,7 +12934,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>511</v>
       </c>
@@ -13091,7 +12942,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>511</v>
       </c>
@@ -13099,7 +12950,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>511</v>
       </c>
@@ -13107,7 +12958,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>511</v>
       </c>
@@ -13115,7 +12966,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>511</v>
       </c>
@@ -13123,7 +12974,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>511</v>
       </c>
@@ -13131,7 +12982,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>511</v>
       </c>
@@ -13139,7 +12990,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>511</v>
       </c>
@@ -13147,7 +12998,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>511</v>
       </c>
@@ -13155,7 +13006,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>511</v>
       </c>
@@ -13163,7 +13014,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>511</v>
       </c>
@@ -13171,7 +13022,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>511</v>
       </c>
@@ -13179,7 +13030,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>511</v>
       </c>
@@ -13187,7 +13038,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>511</v>
       </c>
@@ -13195,7 +13046,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>511</v>
       </c>
@@ -13206,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>511</v>
       </c>
@@ -13217,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>511</v>
       </c>
@@ -13228,7 +13079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>511</v>
       </c>
@@ -13239,7 +13090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>40000</v>
       </c>
@@ -13250,7 +13101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>40000</v>
       </c>
@@ -13261,7 +13112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>40000</v>
       </c>
@@ -13272,7 +13123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>40000</v>
       </c>
@@ -13283,7 +13134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>40000</v>
       </c>
@@ -13294,37 +13145,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C250" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C251" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C252" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C253" s="1">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C254" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C255" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C256" s="1">
         <v>255</v>
       </c>
